--- a/ohio_taxation/ohio_taxation_project.xlsx
+++ b/ohio_taxation/ohio_taxation_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rawatsa\OneDrive - University of Cincinnati\StataProjects\ohio_taxation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{BC1CC400-6505-4AC5-9024-BC2C383FEB58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1EE5D999-F8ED-4B84-A485-4E67939ECF02}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{BC1CC400-6505-4AC5-9024-BC2C383FEB58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BF369C96-DB0A-45BB-A5E0-900F88165C73}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{6076C498-7550-4659-B77A-B322F59EE1E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Dataset</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>1. used Ohio employment data to create outcome variable per each subdivision</t>
+  </si>
+  <si>
+    <t>2. The old data set only has sales through the first part of 2016, need to drop year==2016, so that we rely on the new data set for 2016 sales</t>
+  </si>
+  <si>
+    <t>3. the old data set (9516) contains some variables that the new one (1621) does not. Drop variable from 9516 if it does not appear in 1621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Started data merge process of ohiohousesales_9516_cleaned.dta (old) and ohiohousesales_1621_cleaned.dta (new). Goal is to append the two datasets together </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Variable names differed between datasets. I created a mapping table </t>
   </si>
 </sst>
 </file>
@@ -104,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D51455-1A4A-4637-A914-7556C1D5B5DF}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +504,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -498,18 +536,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -742,26 +780,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12691807-E471-4646-8660-CDD6AEC35FEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5D260B4-C00E-4475-A491-F2EE2B50C714}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="bb53d160-e9b7-42e4-9639-85c2eeb2a294"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="9772973a-2681-4778-b4c7-fa785e6ae870"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12691807-E471-4646-8660-CDD6AEC35FEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
